--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52892\Desktop\git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\52892\Desktop\git\chiqingChen-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EA9C6C-8904-47EC-8196-AA8F31E204CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775FAECC-83CE-40FE-870A-0039680FEF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="4245" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>五月工作计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工作安排</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -39,11 +35,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文献查阅：生态碳汇和岩溶碳汇的研究方法以及开展的工作</t>
+    <t>7月工作计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碳酸钙滴定方法学习，查找是否有更精确的方法完成测定</t>
+    <t>主攻岩溶碳汇研究方法以及国内外研究现状的整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外测样准备：二氧化碳通量测试（现阶段）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -140,10 +140,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +429,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4:V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -465,7 +465,7 @@
     </row>
     <row r="2" spans="1:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>11</v>
@@ -533,43 +533,43 @@
     </row>
     <row r="3" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:22" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
